--- a/Data/TestCases.xlsx
+++ b/Data/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drage\source\repos\ApprenticeTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB7D747-1E4F-4BA4-95FE-FD9BEB81FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E28D2-6B7E-4DB3-B92B-D29AB0A80824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F4B1A79E-4A29-43C0-8B0E-359F2BEADD72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F4B1A79E-4A29-43C0-8B0E-359F2BEADD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,126 @@
   </si>
   <si>
     <t>Create order and get Result</t>
+  </si>
+  <si>
+    <t>Cat-Service-9</t>
+  </si>
+  <si>
+    <t>Can get all orders transformed</t>
+  </si>
+  <si>
+    <t>Collection of data, if none found empty</t>
+  </si>
+  <si>
+    <t>Cat-Service-12</t>
+  </si>
+  <si>
+    <t>When creating order, add id to customer</t>
+  </si>
+  <si>
+    <t>When creating order, add id to menu</t>
+  </si>
+  <si>
+    <t>Cat-Service-13</t>
+  </si>
+  <si>
+    <t>All paths tested</t>
+  </si>
+  <si>
+    <t>Log-2</t>
+  </si>
+  <si>
+    <t>Read logs for each method call and chek if any logs are present</t>
+  </si>
+  <si>
+    <t>A single log should be present</t>
+  </si>
+  <si>
+    <t>Log-4</t>
+  </si>
+  <si>
+    <t>Log-3</t>
+  </si>
+  <si>
+    <t>User-Factory-1</t>
+  </si>
+  <si>
+    <t>Get Result&lt;User&gt;</t>
+  </si>
+  <si>
+    <t>User-Service-1</t>
+  </si>
+  <si>
+    <t>Create customer  and get Result</t>
+  </si>
+  <si>
+    <t>User-Service-3</t>
+  </si>
+  <si>
+    <t>Can login and gets a token</t>
+  </si>
+  <si>
+    <t>It should take a minimum of 500 ms every time and the token should be valid</t>
+  </si>
+  <si>
+    <t>User-Service-4</t>
+  </si>
+  <si>
+    <t>Can place order</t>
+  </si>
+  <si>
+    <t>User-Service-5</t>
+  </si>
+  <si>
+    <t>Can see orders</t>
+  </si>
+  <si>
+    <t>Security-1</t>
+  </si>
+  <si>
+    <t>Can hash and salt a password</t>
+  </si>
+  <si>
+    <t>Password should be unique for each run</t>
+  </si>
+  <si>
+    <t>Going to be annoying to test given the randomness</t>
+  </si>
+  <si>
+    <t>Security-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can generate a JWT </t>
+  </si>
+  <si>
+    <t>Only generate JWT for valid login else BadRequest</t>
+  </si>
+  <si>
+    <t>User-Endpoint-3</t>
+  </si>
+  <si>
+    <t>Returns a collection of transformed menues or empty</t>
+  </si>
+  <si>
+    <t>User-Endpoint-4</t>
+  </si>
+  <si>
+    <t>Can place an order</t>
+  </si>
+  <si>
+    <t>Mock the communication interface</t>
+  </si>
+  <si>
+    <t>Cat-Rules-1</t>
+  </si>
+  <si>
+    <t>Returns InvalidRequest if the menu has orders for today or in the future</t>
+  </si>
+  <si>
+    <t>Security-5</t>
+  </si>
+  <si>
+    <t>Can use the salt of a salted-hashed password to generate the same salted-hashed password</t>
   </si>
 </sst>
 </file>
@@ -445,21 +565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CE1E3-8DBB-4BD3-B2BA-54F3D1211839}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -486,8 +607,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -500,8 +624,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -514,8 +641,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -528,19 +658,22 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -551,7 +684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -562,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -571,6 +704,202 @@
       </c>
       <c r="C9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestCases.xlsx
+++ b/Data/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drage\source\repos\ApprenticeTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E28D2-6B7E-4DB3-B92B-D29AB0A80824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854AB260-20E8-449F-82D9-975FADCC2279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F4B1A79E-4A29-43C0-8B0E-359F2BEADD72}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F4B1A79E-4A29-43C0-8B0E-359F2BEADD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Can place an order</t>
   </si>
   <si>
-    <t>Mock the communication interface</t>
-  </si>
-  <si>
     <t>Cat-Rules-1</t>
   </si>
   <si>
@@ -214,6 +211,63 @@
   </si>
   <si>
     <t>Can use the salt of a salted-hashed password to generate the same salted-hashed password</t>
+  </si>
+  <si>
+    <t>Cannot modify menu if it is in use</t>
+  </si>
+  <si>
+    <t>Can relog in</t>
+  </si>
+  <si>
+    <t>Security-4</t>
+  </si>
+  <si>
+    <t>The password requirements are tested</t>
+  </si>
+  <si>
+    <t>Each rule broken rule should return a unique binary value</t>
+  </si>
+  <si>
+    <t>User-Factory-2</t>
+  </si>
+  <si>
+    <t>User-Service-6</t>
+  </si>
+  <si>
+    <t>Get Result&lt;Token&gt;</t>
+  </si>
+  <si>
+    <t>User location has been changed.</t>
+  </si>
+  <si>
+    <t>Null and white-space strings should not change the location</t>
+  </si>
+  <si>
+    <t>Cat-Service-16</t>
+  </si>
+  <si>
+    <t>Customer location has been changed.</t>
+  </si>
+  <si>
+    <t>User-Endpoint-1</t>
+  </si>
+  <si>
+    <t>200 with Auth data if valid user else 401</t>
+  </si>
+  <si>
+    <t>Attemp to log in</t>
+  </si>
+  <si>
+    <t>Mock the communication interface. Requires being loggedin</t>
+  </si>
+  <si>
+    <t>Result-1-a</t>
+  </si>
+  <si>
+    <t>Mapping Result&lt;T&gt;/Result to correct HTTPResponse</t>
+  </si>
+  <si>
+    <t>Correct mapping. 200 should have data, all non-200 and non-204 should carry the errors</t>
   </si>
 </sst>
 </file>
@@ -249,8 +303,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CE1E3-8DBB-4BD3-B2BA-54F3D1211839}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -800,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -811,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -822,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -833,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -847,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -858,7 +915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -869,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -883,23 +940,112 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
